--- a/data/struggles.xlsx
+++ b/data/struggles.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
   <si>
     <t>parts</t>
   </si>
@@ -77,67 +77,352 @@
     <t>19</t>
   </si>
   <si>
-    <t>plot the intersecting axes at 0,0</t>
-  </si>
-  <si>
-    <t>scaling</t>
-  </si>
-  <si>
-    <t>axes</t>
-  </si>
-  <si>
-    <t>fine adjustments like color from gui</t>
-  </si>
-  <si>
-    <t>aesthetic features - line thickness, axes limits etc.</t>
-  </si>
-  <si>
-    <t>changing color of waveforms</t>
-  </si>
-  <si>
-    <t>changing axes</t>
-  </si>
-  <si>
-    <t>choosing where to put legend</t>
-  </si>
-  <si>
-    <t>playing with the ticks of the axes and manipulating the timeline, so the former are visible well.</t>
-  </si>
-  <si>
-    <t>setting the appropriate line styles and colours when there are many conditions</t>
-  </si>
-  <si>
-    <t>customising the scale of the axes and enlarging the font</t>
-  </si>
-  <si>
-    <t>getting the proportions right</t>
-  </si>
-  <si>
-    <t>axis, legend manipulation</t>
-  </si>
-  <si>
-    <t>colors</t>
-  </si>
-  <si>
-    <t>getting a nice legend</t>
-  </si>
-  <si>
-    <t>maybe fitting the legend correctly on the figure and other aspects of the layout.</t>
-  </si>
-  <si>
-    <t>finding an appropriate scaling (width x height)</t>
-  </si>
-  <si>
-    <t>customise line colour/thickness. i did so using matlab's property inspector but if it was a bit easier to do so with an interactive legend or something that'd be much cooler</t>
-  </si>
-  <si>
-    <t>controlling the colors</t>
-  </si>
-  <si>
-    <t>plot components</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>to provide the correct electrode position</t>
+  </si>
+  <si>
+    <t>setting color limits took a little work, when plotting multiple topoplots for different conditions.</t>
+  </si>
+  <si>
+    <t>1) - 2) getting a good colour scheme instead of jet/parula 3) -</t>
+  </si>
+  <si>
+    <t>set color range</t>
+  </si>
+  <si>
+    <t>choosing the right time-window/time-point</t>
+  </si>
+  <si>
+    <t>label electrodes and highlight electrode of interest (to identify the erp plotted side-by-side)</t>
+  </si>
+  <si>
+    <t>not too hard... but have to remember to deselect the eye channels!! making the .ced file is probably the hardest part (electrode location file)</t>
+  </si>
+  <si>
+    <t>position of electrode labels relative to head</t>
+  </si>
+  <si>
+    <t>highlighting the electrodes (and large enough)</t>
+  </si>
+  <si>
+    <t>plotting custom values eg differences or p-values etc</t>
+  </si>
+  <si>
+    <t>color scaling, specifically label electrodes</t>
+  </si>
+  <si>
+    <t>arranging topographies with other parts of the figure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> choosing an appropriate colourmap and scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adding a custom montage</t>
+  </si>
+  <si>
+    <t>make thee electrode labels readable and not too cluttered</t>
+  </si>
+  <si>
+    <t>change head border thickness</t>
+  </si>
+  <si>
+    <t>overlay of electrodes on scalp topography</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>again little control over the plot features.</t>
+  </si>
+  <si>
+    <t>indicating a target channel together with significant channels</t>
+  </si>
+  <si>
+    <t>maybe setting up not to interpolate outside the scalp</t>
+  </si>
+  <si>
+    <t>adjustments, e.g. getting the right size of markers for specific cannels and labels. finding the optimal coloraxis over several topoplots</t>
+  </si>
+  <si>
+    <t>centering the electrodes to minimize interpolated surface edges</t>
+  </si>
+  <si>
+    <t>figuring out time window to generate this plot from</t>
+  </si>
+  <si>
+    <t>standardizing limits across different plots</t>
+  </si>
+  <si>
+    <t>select time-windows for plotting
+select value (e.g., mean/peak etc) to plot</t>
+  </si>
+  <si>
+    <t>labeling</t>
+  </si>
+  <si>
+    <t>smoothing correctly</t>
+  </si>
+  <si>
+    <t>elec localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> set threshold</t>
+  </si>
+  <si>
+    <t>scaling of different maps</t>
+  </si>
+  <si>
+    <t>if i am not mistaken this plot was difficult to include in vector form</t>
+  </si>
+  <si>
+    <t>scaling colour and choosing size of electrodes</t>
+  </si>
+  <si>
+    <t>different highlights of different channels</t>
+  </si>
+  <si>
+    <t>the colormap</t>
+  </si>
+  <si>
+    <t>highlighting channels</t>
+  </si>
+  <si>
+    <t>color-coding and time range selection</t>
+  </si>
+  <si>
+    <t>displaying channels or significance of clusters or selected type of values.</t>
+  </si>
+  <si>
+    <t>selecting a color scheme that made differences clear but where also the labels were clearly visible</t>
+  </si>
+  <si>
+    <t>highlighting electrodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating layout</t>
+  </si>
+  <si>
+    <t>outputting a handle</t>
+  </si>
+  <si>
+    <t>selecting nice colors</t>
+  </si>
+  <si>
+    <t>finding the correct headshape for meg helmet</t>
+  </si>
+  <si>
+    <t>manipulating line width, highlighting sensors</t>
+  </si>
+  <si>
+    <t>select nice colormap (perceptually uniform, variant-colour-vision friendly)
+control interpolation in a way that is not misleading (e.g., the layout here doesn't go anywhere near the edge of the circle... those gigantic blue patches are not near any channel!)
+plot onto a head that looks like a head</t>
+  </si>
+  <si>
+    <t>find a suitable scale for visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dealing with missing channels without (visually) skewing the figure (similar for edge effects)
+</t>
+  </si>
+  <si>
+    <t>color scheme, electrode positions</t>
+  </si>
+  <si>
+    <t>again, it would be nice to have an integrative plotting easily with statistical test results</t>
+  </si>
+  <si>
+    <t>colorbar</t>
+  </si>
+  <si>
+    <t>getting the right template positions for electrodes, getting a good interpolation</t>
+  </si>
+  <si>
+    <t>customizing the plot (e.g., different head template)</t>
+  </si>
+  <si>
+    <t>for the automatic title, the units of the time couldn't be adjusted as far as i remember.</t>
+  </si>
+  <si>
+    <t>scales</t>
+  </si>
+  <si>
+    <t>controlling parameters of the interpolation</t>
+  </si>
+  <si>
+    <t>scaling of the head circle in relation to the sensors</t>
+  </si>
+  <si>
+    <t>sorting out what happens on the edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fitting the channels correctly in the head box. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> different versions of mne and other softwares used different head shapes, difficult to compare.</t>
+  </si>
+  <si>
+    <t>plot in 3d</t>
+  </si>
+  <si>
+    <t>change the color palette to a customized one</t>
+  </si>
+  <si>
+    <t>stats annotation, head shape for animals</t>
   </si>
   <si>
     <t>styling</t>
+  </si>
+  <si>
+    <t>time selection</t>
+  </si>
+  <si>
+    <t>channel selection
+(differentiation, identification)</t>
+  </si>
+  <si>
+    <t>head shape and montage</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>plot components
+(axes, lables, legend)</t>
+  </si>
+  <si>
+    <t>interpolation</t>
   </si>
 </sst>
 </file>
@@ -202,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
@@ -213,10 +498,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -224,10 +509,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -235,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -246,10 +531,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -257,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -268,10 +553,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -279,10 +564,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -290,10 +575,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -301,10 +586,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -312,10 +597,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -323,10 +608,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -334,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -345,10 +630,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -356,10 +641,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -367,10 +652,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
@@ -378,10 +663,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -389,10 +674,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -400,10 +685,494 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
